--- a/mydemoapp-qa.xlsx
+++ b/mydemoapp-qa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rea\Develop\Manual-QA-MyDemoApp-by-Sauce-Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B92A963-52DB-487A-91FF-F4097BD15362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E850A1D6-4760-48F1-8EB0-D6F301E42DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,69 +126,6 @@
     <t>Verify user logout</t>
   </si>
   <si>
-    <t>Change item color</t>
-  </si>
-  <si>
-    <t>Rate item</t>
-  </si>
-  <si>
-    <t>Add to cart</t>
-  </si>
-  <si>
-    <t>Sort by name (Asc)</t>
-  </si>
-  <si>
-    <t>Sort by name (Desc)</t>
-  </si>
-  <si>
-    <t>Sort by price (Asc)</t>
-  </si>
-  <si>
-    <t>Sort by price (Desc)</t>
-  </si>
-  <si>
-    <t>Increase quantity (+)</t>
-  </si>
-  <si>
-    <t>Decrease quantity (-)</t>
-  </si>
-  <si>
-    <t>Enter URL in box</t>
-  </si>
-  <si>
-    <t>Scan QR Code</t>
-  </si>
-  <si>
-    <t>Draw on canvas</t>
-  </si>
-  <si>
-    <t>Clear button</t>
-  </si>
-  <si>
-    <t>Save button</t>
-  </si>
-  <si>
-    <t>Check version display</t>
-  </si>
-  <si>
-    <t>Sauce Labs link</t>
-  </si>
-  <si>
-    <t>Reset button interaction</t>
-  </si>
-  <si>
-    <t>Click "OK" on Reset</t>
-  </si>
-  <si>
-    <t>Switch ON</t>
-  </si>
-  <si>
-    <t>5G / Wi-Fi</t>
-  </si>
-  <si>
-    <t>Switch OFF</t>
-  </si>
-  <si>
     <t>The application maintains full functionality and data sync across both 5G and Wi-Fi connections.</t>
   </si>
   <si>
@@ -478,6 +415,71 @@
   </si>
   <si>
     <t>1. Current canvas with drawing</t>
+  </si>
+  <si>
+    <t>Verify if item color can be changed</t>
+  </si>
+  <si>
+    <t>Verify if item can be rated</t>
+  </si>
+  <si>
+    <t>Verify if a selected item can be successfully added to the shopping cart</t>
+  </si>
+  <si>
+    <t>Verify if the product list sorts alphabetically (A-Z) by name</t>
+  </si>
+  <si>
+    <t>Verify if the product list sorts reverse-alphabetically (Z-A) by name</t>
+  </si>
+  <si>
+    <t>Verify if the product list sorts from lowest to highest price</t>
+  </si>
+  <si>
+    <t>Verify if the product list sorts from highest to lowest price</t>
+  </si>
+  <si>
+    <t>Verify if the item quantity increments correctly when the '+' button is clicked</t>
+  </si>
+  <si>
+    <t>Verify if the item quantity decrements correctly when the '-' button is clicked</t>
+  </si>
+  <si>
+    <t>Verify if URL can be loaded to the specified URL</t>
+  </si>
+  <si>
+    <t>Verify if QR Code can be scanned</t>
+  </si>
+  <si>
+    <t>Verify if user is able to draw on a blank canvas</t>
+  </si>
+  <si>
+    <t>Verify if drawn canvas can be cleared</t>
+  </si>
+  <si>
+    <t>Verify if canvas can be saved in gallery</t>
+  </si>
+  <si>
+    <t>Verify is application version is displayed</t>
+  </si>
+  <si>
+    <t>Verify if reset app state button can be interacted</t>
+  </si>
+  <si>
+    <t>Verify is Sauce Labs link can be interacted</t>
+  </si>
+  <si>
+    <t>Verify if "OK" button can be interacted once Reset App State modal is triggered</t>
+  </si>
+  <si>
+    <t>Verify if FingerPrint ON switch button can be interacted</t>
+  </si>
+  <si>
+    <t>Verify if FingerPrint OFF switch button can be interacted</t>
+  </si>
+  <si>
+    <t>Verify if application runs on selected network connection:
+1. 5G
+2. Wi-Fi</t>
   </si>
 </sst>
 </file>
@@ -691,14 +693,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -722,6 +723,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,9 +766,6 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -783,6 +784,9 @@
           <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1108,8 +1112,8 @@
     <tableColumn id="5" xr3:uid="{B5197FE7-8E75-44EA-827D-ED0F14AD44DF}" name="Column5" headerRowDxfId="13" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{F0A78EB8-75C8-4398-93E2-76CB22C42DD6}" name="Column6" headerRowDxfId="11" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{9E4ACC3A-6C1B-498C-9067-7C4B861EE2B3}" name="Column7" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{C6A12C5E-2D71-43D9-8AD4-9CCA861B7076}" name="Column8" headerRowDxfId="6" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{3A67EACA-BE3A-4ED9-A0A5-1ADFFD82805E}" name="Column9" headerRowDxfId="4" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{C6A12C5E-2D71-43D9-8AD4-9CCA861B7076}" name="Column8" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{3A67EACA-BE3A-4ED9-A0A5-1ADFFD82805E}" name="Column9" headerRowDxfId="5" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1417,144 +1421,134 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C3" s="17"/>
-      <c r="D3" s="21" t="s">
-        <v>94</v>
+      <c r="D3" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C4" s="17"/>
-      <c r="D4" s="21"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="21" t="s">
-        <v>95</v>
+      <c r="D5" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="21" t="s">
-        <v>96</v>
+      <c r="D7" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C8" s="17"/>
-      <c r="D8" s="21" t="s">
-        <v>97</v>
+      <c r="D8" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="21" t="s">
-        <v>105</v>
+      <c r="D9" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>46037</v>
       </c>
       <c r="E11" s="18"/>
@@ -1562,17 +1556,17 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>46038</v>
       </c>
       <c r="E12" s="18"/>
@@ -1593,10 +1587,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S659"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D42" sqref="D42"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
@@ -1653,7 +1647,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1670,7 +1664,7 @@
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="3"/>
@@ -1686,19 +1680,19 @@
         <v>27</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>117</v>
+      <c r="I4" s="28" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -1712,10 +1706,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="3" t="s">
@@ -1731,13 +1725,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="3" t="s">
@@ -1753,13 +1747,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="3" t="s">
@@ -1775,13 +1769,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="3" t="s">
@@ -1797,13 +1791,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="3" t="s">
@@ -1819,13 +1813,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="3" t="s">
@@ -1841,13 +1835,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="3" t="s">
@@ -1862,18 +1856,18 @@
       <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
+      <c r="C12" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="75" x14ac:dyDescent="0.25">
@@ -1885,17 +1879,17 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="75" x14ac:dyDescent="0.25">
@@ -1907,17 +1901,17 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
@@ -1929,17 +1923,17 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="75" x14ac:dyDescent="0.25">
@@ -1951,20 +1945,20 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>118</v>
+        <v>80</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1976,13 +1970,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="3" t="s">
@@ -1998,17 +1992,17 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -2020,17 +2014,17 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2042,15 +2036,15 @@
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2062,15 +2056,15 @@
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2082,15 +2076,15 @@
         <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2102,13 +2096,13 @@
         <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="3" t="s">
@@ -2124,17 +2118,17 @@
         <v>15</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2146,17 +2140,17 @@
         <v>15</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2168,17 +2162,17 @@
         <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="3" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2195,8 +2189,8 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>116</v>
+      <c r="B28" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="13"/>
@@ -2208,9 +2202,9 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="26"/>
+        <v>96</v>
+      </c>
+      <c r="C29" s="25"/>
       <c r="D29" s="16"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -2220,10 +2214,10 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="26"/>
+      <c r="B30" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="25"/>
       <c r="D30" s="16"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -2233,10 +2227,10 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="26"/>
+      <c r="B31" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="25"/>
       <c r="D31" s="16"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -2246,7 +2240,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="26"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="16"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -4849,7 +4843,7 @@
       <c r="A659" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L3 H2:H1048576">
+  <conditionalFormatting sqref="H2:H1048576 L3">
     <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
       <formula>"Incorrect"</formula>
     </cfRule>
